--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H2">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N2">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O2">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P2">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q2">
-        <v>123.2543260898561</v>
+        <v>48.791840792786</v>
       </c>
       <c r="R2">
-        <v>1109.288934808705</v>
+        <v>439.126567135074</v>
       </c>
       <c r="S2">
-        <v>0.02387608255444808</v>
+        <v>0.007370388229687793</v>
       </c>
       <c r="T2">
-        <v>0.02387608255444808</v>
+        <v>0.007370388229687793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H3">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P3">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q3">
-        <v>0.9845652159894447</v>
+        <v>0.288633629329889</v>
       </c>
       <c r="R3">
-        <v>8.861086943905002</v>
+        <v>2.597702663969001</v>
       </c>
       <c r="S3">
-        <v>0.0001907240185635697</v>
+        <v>4.360036165349218E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001907240185635696</v>
+        <v>4.360036165349218E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H4">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q4">
-        <v>16.17622117053056</v>
+        <v>4.742196199366111</v>
       </c>
       <c r="R4">
-        <v>145.585990534775</v>
+        <v>42.679765794295</v>
       </c>
       <c r="S4">
-        <v>0.003133559724346137</v>
+        <v>0.0007163457349173406</v>
       </c>
       <c r="T4">
-        <v>0.003133559724346135</v>
+        <v>0.0007163457349173406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J5">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N5">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O5">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P5">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q5">
-        <v>3561.16590217054</v>
+        <v>4808.778754958179</v>
       </c>
       <c r="R5">
-        <v>32050.49311953486</v>
+        <v>43279.00879462361</v>
       </c>
       <c r="S5">
-        <v>0.6898475190909111</v>
+        <v>0.7264035494220737</v>
       </c>
       <c r="T5">
-        <v>0.6898475190909109</v>
+        <v>0.7264035494220736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J6">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P6">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q6">
         <v>28.44687230765967</v>
@@ -818,10 +818,10 @@
         <v>256.021850768937</v>
       </c>
       <c r="S6">
-        <v>0.005510556044405032</v>
+        <v>0.004297122006899275</v>
       </c>
       <c r="T6">
-        <v>0.00551055604440503</v>
+        <v>0.004297122006899274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J7">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q7">
         <v>467.3767573599484</v>
@@ -880,10 +880,10 @@
         <v>4206.390816239536</v>
       </c>
       <c r="S7">
-        <v>0.09053739853821471</v>
+        <v>0.07060090571095497</v>
       </c>
       <c r="T7">
-        <v>0.09053739853821467</v>
+        <v>0.07060090571095497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N8">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O8">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P8">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q8">
-        <v>846.927796336939</v>
+        <v>1143.639051336054</v>
       </c>
       <c r="R8">
-        <v>7622.350167032451</v>
+        <v>10292.75146202449</v>
       </c>
       <c r="S8">
-        <v>0.1640617301193599</v>
+        <v>0.172755601469843</v>
       </c>
       <c r="T8">
-        <v>0.1640617301193598</v>
+        <v>0.172755601469843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P9">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q9">
         <v>6.765325609099001</v>
@@ -1004,10 +1004,10 @@
         <v>60.88793048189101</v>
       </c>
       <c r="S9">
-        <v>0.001310537957368001</v>
+        <v>0.001021955216878824</v>
       </c>
       <c r="T9">
-        <v>0.001310537957368</v>
+        <v>0.001021955216878824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q10">
         <v>111.153026296445</v>
@@ -1066,10 +1066,10 @@
         <v>1000.377236668005</v>
       </c>
       <c r="S10">
-        <v>0.02153189195238378</v>
+        <v>0.01679053184709159</v>
       </c>
       <c r="T10">
-        <v>0.02153189195238377</v>
+        <v>0.01679053184709159</v>
       </c>
     </row>
   </sheetData>
